--- a/api/data/mapped_data.xlsx
+++ b/api/data/mapped_data.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">price_calculator_url</t>
   </si>
   <si>
-    <t xml:space="preserve">degrees_awarded.predominant_recoded</t>
+    <t xml:space="preserve">degrees_awarded_predominant_recoded</t>
   </si>
   <si>
     <t xml:space="preserve">under_investigation</t>
@@ -3572,7 +3572,7 @@
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
